--- a/spreadsheets/IPU.xlsx
+++ b/spreadsheets/IPU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plantronics-my.sharepoint.com/personal/jennifer_ayala_poly_com/Documents/IPUs and Cloud Status of Managed Service Accounts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plantronics-my.sharepoint.com/personal/landon_brown_poly_com/Documents/Desktop/IPUs/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="35" documentId="8_{DD25038B-4C97-4B5C-98E3-067EB3FCA4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA6AB870-AD75-4366-9377-AEABABC3AF21}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C38B610A-5224-49A7-99E6-4D31E486AFC3}"/>
+    <workbookView xWindow="2580" yWindow="372" windowWidth="20460" windowHeight="11988" xr2:uid="{C38B610A-5224-49A7-99E6-4D31E486AFC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Clariti 2.0" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,6 +1049,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1058,7 +1059,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma 7 5" xfId="2" xr:uid="{E8013FF1-17C5-45A8-910E-0D3D1F42DFD1}"/>
@@ -1457,34 +1457,34 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45" style="2" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="35" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:7" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1493,20 +1493,20 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="21" thickBot="1">
+    <row r="3" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="5"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="14.65">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1517,18 +1517,18 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="60" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
@@ -1578,7 +1578,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="29.25">
+    <row r="10" spans="1:7" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="14.65">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="14.65">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="14.65">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="14.65">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
@@ -1668,7 +1668,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="14.65">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1677,7 +1677,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="14.65">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -1688,7 +1688,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1">
+    <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1697,7 +1697,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -1735,7 +1735,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="24"/>
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
@@ -1745,7 +1745,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="24"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -1755,7 +1755,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="24"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
@@ -1765,7 +1765,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="24"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
@@ -1775,7 +1775,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="14.65">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="24"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
@@ -1785,7 +1785,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="14.65">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="24"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -1795,7 +1795,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="14.65">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="24"/>
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
@@ -1805,7 +1805,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="14.65">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1819,7 +1819,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="14.65">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
         <v>29</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="14.65">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>30</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="14.65">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="29"/>
       <c r="B30" s="1" t="s">
         <v>32</v>
@@ -1854,7 +1854,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="14.65">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
       <c r="B31" s="1" t="s">
         <v>33</v>
@@ -1865,7 +1865,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="14.65">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="31"/>
       <c r="B32" s="1" t="s">
         <v>34</v>
@@ -1876,7 +1876,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="14.65">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1885,7 +1885,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="14.65">
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1894,7 +1894,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1">
+    <row r="35" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="32" t="s">
         <v>35</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1">
+    <row r="36" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1">
+    <row r="37" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -1933,7 +1933,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1">
+    <row r="38" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -1944,7 +1944,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1">
+    <row r="39" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1">
+    <row r="40" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1">
+    <row r="41" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1">
+    <row r="42" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1">
+    <row r="43" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="14.65">
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
@@ -2016,7 +2016,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="14.65">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2025,7 +2025,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="14.65">
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2034,7 +2034,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="14.65">
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2043,7 +2043,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="14.65">
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2052,7 +2052,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="14.65">
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2061,7 +2061,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="14.65">
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2070,7 +2070,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="14.65">
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2079,7 +2079,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="14.65">
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2088,7 +2088,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="14.65">
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2097,7 +2097,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="14.65">
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2106,7 +2106,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="14.65">
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2115,7 +2115,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="14.65">
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2124,7 +2124,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="14.65">
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2133,7 +2133,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="14.65">
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2142,7 +2142,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="14.65">
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2151,7 +2151,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="14.65">
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2160,7 +2160,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="14.65">
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2169,7 +2169,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="14.65">
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2178,7 +2178,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="14.65">
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2187,7 +2187,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="14.65">
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2196,7 +2196,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="14.65">
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2205,7 +2205,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="14.65">
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2214,7 +2214,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="14.65">
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2223,7 +2223,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="14.65">
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2232,7 +2232,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="14.65">
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2241,7 +2241,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="14.65">
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2250,7 +2250,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="14.65">
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2259,7 +2259,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="14.65">
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2268,7 +2268,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="14.65">
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2277,7 +2277,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="14.65">
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2286,7 +2286,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="14.65">
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2295,7 +2295,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="14.65">
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2304,7 +2304,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="14.65">
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2313,7 +2313,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="14.65">
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2322,7 +2322,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="14.65">
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2331,7 +2331,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="14.65">
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2340,7 +2340,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="14.65">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2349,7 +2349,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="14.65">
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2358,7 +2358,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="14.65">
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2367,7 +2367,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="14.65">
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2376,7 +2376,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="14.65">
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2385,7 +2385,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="14.65">
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2412,14 +2412,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="15" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C2" s="58" t="s">
         <v>50</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
     </row>
-    <row r="3" spans="3:17" ht="26.65">
+    <row r="3" spans="3:17" ht="27" x14ac:dyDescent="0.6">
       <c r="C3" s="39" t="s">
         <v>51</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="3:17" ht="29.65" customHeight="1">
+    <row r="4" spans="3:17" ht="29.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="57"/>
       <c r="D4" s="42"/>
       <c r="E4" s="43"/>
@@ -2453,29 +2453,29 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="3:17" ht="15" thickBot="1"/>
-    <row r="6" spans="3:17">
+    <row r="5" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
       <c r="O6" s="44" t="s">
         <v>52</v>
       </c>
       <c r="P6" s="45"/>
       <c r="Q6" s="46"/>
     </row>
-    <row r="7" spans="3:17">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
       <c r="O7" s="47" t="s">
         <v>8</v>
       </c>
       <c r="P7" s="48"/>
       <c r="Q7" s="49"/>
     </row>
-    <row r="8" spans="3:17">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
       <c r="O8" s="50" t="s">
         <v>10</v>
       </c>
       <c r="P8" s="51"/>
       <c r="Q8" s="52"/>
     </row>
-    <row r="9" spans="3:17" ht="15" thickBot="1">
+    <row r="9" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O9" s="53" t="s">
         <v>11</v>
       </c>
@@ -2489,15 +2489,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006234A633F2607B4AB2F0DD47C854A1A6" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b7f44df6be39d6dfec52f4eeba7d842">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="921a143b-05bd-400c-9eab-f5af2e827b73" xmlns:ns3="82d7a0e6-50aa-4cdc-b5cc-cb9041e495b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0e2639ea1f75547cde33c72b8f66fac" ns2:_="" ns3:_="">
     <xsd:import namespace="921a143b-05bd-400c-9eab-f5af2e827b73"/>
@@ -2730,6 +2721,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2740,13 +2740,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245A2814-FEC3-4A50-84E5-3315C1BE1A1E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC59809-4A3E-4561-B333-E4217FABB892}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="921a143b-05bd-400c-9eab-f5af2e827b73"/>
+    <ds:schemaRef ds:uri="82d7a0e6-50aa-4cdc-b5cc-cb9041e495b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC59809-4A3E-4561-B333-E4217FABB892}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245A2814-FEC3-4A50-84E5-3315C1BE1A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D56CE6C-619A-41F0-899F-103823242E30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D56CE6C-619A-41F0-899F-103823242E30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="921a143b-05bd-400c-9eab-f5af2e827b73"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/spreadsheets/IPU.xlsx
+++ b/spreadsheets/IPU.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="35" documentId="8_{DD25038B-4C97-4B5C-98E3-067EB3FCA4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA6AB870-AD75-4366-9377-AEABABC3AF21}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="372" windowWidth="20460" windowHeight="11988" xr2:uid="{C38B610A-5224-49A7-99E6-4D31E486AFC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C38B610A-5224-49A7-99E6-4D31E486AFC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Clariti 2.0" sheetId="1" r:id="rId1"/>
@@ -1457,8 +1457,8 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2408,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415BADD1-1E53-481E-AD09-E640F13A9C7B}">
   <dimension ref="C2:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2489,6 +2489,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006234A633F2607B4AB2F0DD47C854A1A6" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b7f44df6be39d6dfec52f4eeba7d842">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="921a143b-05bd-400c-9eab-f5af2e827b73" xmlns:ns3="82d7a0e6-50aa-4cdc-b5cc-cb9041e495b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0e2639ea1f75547cde33c72b8f66fac" ns2:_="" ns3:_="">
     <xsd:import namespace="921a143b-05bd-400c-9eab-f5af2e827b73"/>
@@ -2721,15 +2730,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2740,6 +2740,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245A2814-FEC3-4A50-84E5-3315C1BE1A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC59809-4A3E-4561-B333-E4217FABB892}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2758,14 +2766,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245A2814-FEC3-4A50-84E5-3315C1BE1A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D56CE6C-619A-41F0-899F-103823242E30}">
   <ds:schemaRefs>

--- a/spreadsheets/IPU.xlsx
+++ b/spreadsheets/IPU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plantronics-my.sharepoint.com/personal/landon_brown_poly_com/Documents/Desktop/IPUs/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcormican\PycharmProjects\IPU_Automation\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{DD25038B-4C97-4B5C-98E3-067EB3FCA4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA6AB870-AD75-4366-9377-AEABABC3AF21}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAB52829-7BD9-4558-B085-4AB18BEED4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C38B610A-5224-49A7-99E6-4D31E486AFC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clariti 2.0" sheetId="1" r:id="rId1"/>
@@ -291,11 +291,9 @@
     <definedName name="upgrade_bom">'[1]Input Sheet'!$E$14</definedName>
     <definedName name="Working_hours">OFFSET([1]Lists_simple!$S$2,0,0,COUNTA([1]Lists_simple!$S:$S),1)</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -311,52 +309,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
-  <si>
-    <r>
-      <t xml:space="preserve">Any Questions please reach out to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>sosoftwarelicense@plantronics.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>INTERNAL PURCHASE ORDER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>PO#</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+  <si>
+    <t>Any Questions please reach out to sosoftwarelicense@plantronics.com</t>
+  </si>
+  <si>
+    <t>INTERNAL PURCHASE ORDER PO#</t>
   </si>
   <si>
     <t>IPU-Clar2.0-</t>
@@ -506,10 +464,55 @@
     <t>Always make note of the Original Lic# do not remove it from this tab</t>
   </si>
   <si>
+    <t>IPU-Clar2.0-test</t>
+  </si>
+  <si>
     <t>Original Lic #:</t>
   </si>
   <si>
+    <t>DC99-1318-738C-6A20</t>
+  </si>
+  <si>
+    <t>4956-435C-477D-DF6F</t>
+  </si>
+  <si>
+    <t>500-5000-4010-6320</t>
+  </si>
+  <si>
     <t>GL String</t>
+  </si>
+  <si>
+    <t>DATE: 08/04/2022</t>
+  </si>
+  <si>
+    <t>5-51122-442</t>
+  </si>
+  <si>
+    <t>Poly Clariti - Concurrent User, Audio/P2P Only, 1-year License, Partner Poly Plus Support (Qty 15-49 only)</t>
+  </si>
+  <si>
+    <t>08/11/2022 to 08/18/2023</t>
+  </si>
+  <si>
+    <t>5-51160-100</t>
+  </si>
+  <si>
+    <t>Poly Clariti - Media Encryption License, 1-year (No Maintenance Required)</t>
+  </si>
+  <si>
+    <t>R+V Allgemeine Versicherung AG</t>
+  </si>
+  <si>
+    <t>Raiffeisenplatz 1,</t>
+  </si>
+  <si>
+    <t>Wiesbaden / 0 / 65189</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -659,18 +662,17 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
-      <color rgb="FF0070C0"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="12">
@@ -741,25 +743,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -917,19 +906,19 @@
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -939,60 +928,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,19 +987,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1029,45 +1013,49 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma 7 5" xfId="2" xr:uid="{E8013FF1-17C5-45A8-910E-0D3D1F42DFD1}"/>
-    <cellStyle name="Currency 2 10" xfId="4" xr:uid="{DB54F00B-07F0-4A4C-81EA-D3594BF8E99F}"/>
-    <cellStyle name="Dashed Border" xfId="3" xr:uid="{CD4D8CD8-22ED-4110-88DA-CB06C79010C5}"/>
+    <cellStyle name="Comma 7 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency 2 10" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Dashed Border" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink 32" xfId="5" xr:uid="{642415B9-C9C9-4E51-8C56-78A6AEF1896D}"/>
+    <cellStyle name="Hyperlink 32" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 2" xfId="1" xr:uid="{87777832-EF7E-4C94-ACDF-43B1742D65F4}"/>
+    <cellStyle name="Normal 10 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1453,11 +1441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58BC515-FE96-4DEB-97B2-5933C302E7FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1470,21 +1458,22 @@
     <col min="5" max="5" width="17.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="35" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="8" max="8" width="9.109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1493,20 +1482,20 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="5"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1517,310 +1506,310 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="60" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="27" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="24" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="57"/>
+      <c r="F7" s="24" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="57"/>
+      <c r="F8" s="24" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="29.4" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>13</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>13</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f>SUM(B11:C11)</f>
         <v>26</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>8</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>13</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <f>SUM(B12:C12)</f>
         <v>21</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <f>32+5</f>
         <v>37</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>13</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <f>SUM(B13:C13)</f>
         <v>50</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>6</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>13</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f>SUM(B14:C14)</f>
         <v>19</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="3"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="3"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="58">
         <v>0</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="58">
         <v>0</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="55" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="38"/>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="38"/>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="38"/>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="38"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="38"/>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="38"/>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="38"/>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="59">
         <f>SUM(E19:E26)</f>
         <v>0</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1"/>
@@ -1830,8 +1819,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1843,8 +1832,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="26"/>
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1854,8 +1843,8 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="27"/>
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1865,8 +1854,8 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="31"/>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="28"/>
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1876,7 +1865,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1885,7 +1874,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1894,8 +1883,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="32" t="s">
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1907,116 +1896,116 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="25"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="25"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="25"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="25"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2025,7 +2014,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2034,7 +2023,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2043,7 +2032,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2052,7 +2041,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2061,7 +2050,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2070,7 +2059,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2079,7 +2068,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2088,7 +2077,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2097,7 +2086,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2106,7 +2095,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2115,7 +2104,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2124,7 +2113,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2133,7 +2122,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2142,7 +2131,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2151,7 +2140,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2160,7 +2149,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2169,7 +2158,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2178,7 +2167,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2187,7 +2176,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2196,7 +2185,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2205,7 +2194,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2214,7 +2203,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2223,7 +2212,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2232,7 +2221,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2241,7 +2230,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2250,7 +2239,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2259,7 +2248,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2268,7 +2257,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2277,7 +2266,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2286,7 +2275,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2295,7 +2284,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2304,7 +2293,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2313,7 +2302,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2322,7 +2311,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2331,7 +2320,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2340,7 +2329,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2349,7 +2338,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2358,7 +2347,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2367,7 +2356,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2376,7 +2365,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2385,7 +2374,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2400,15 +2389,15 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415BADD1-1E53-481E-AD09-E640F13A9C7B}">
-  <dimension ref="C2:Q9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2416,362 +2405,161 @@
   <cols>
     <col min="3" max="3" width="33.109375" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="15" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="0" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C2" s="58" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C2" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-    </row>
-    <row r="3" spans="3:17" ht="27" x14ac:dyDescent="0.6">
-      <c r="C3" s="39" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+    </row>
+    <row r="3" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="3:17" ht="29.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="57"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="O6" s="44" t="s">
+      <c r="C3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="46"/>
-    </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="O7" s="47" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+    </row>
+    <row r="4" spans="1:17" ht="29.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="43"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
-    </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="O8" s="50" t="s">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="46"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O8" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
-    </row>
-    <row r="9" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O9" s="53" t="s">
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006234A633F2607B4AB2F0DD47C854A1A6" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b7f44df6be39d6dfec52f4eeba7d842">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="921a143b-05bd-400c-9eab-f5af2e827b73" xmlns:ns3="82d7a0e6-50aa-4cdc-b5cc-cb9041e495b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0e2639ea1f75547cde33c72b8f66fac" ns2:_="" ns3:_="">
-    <xsd:import namespace="921a143b-05bd-400c-9eab-f5af2e827b73"/>
-    <xsd:import namespace="82d7a0e6-50aa-4cdc-b5cc-cb9041e495b4"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:months" minOccurs="0"/>
-                <xsd:element ref="ns2:Months0" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="921a143b-05bd-400c-9eab-f5af2e827b73" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="months" ma:index="20" nillable="true" ma:displayName="months" ma:default="NA" ma:format="Dropdown" ma:internalName="months">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Months0" ma:index="21" nillable="true" ma:displayName="Months" ma:format="Dropdown" ma:internalName="Months0">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="82d7a0e6-50aa-4cdc-b5cc-cb9041e495b4" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="13" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="14" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Months0 xmlns="921a143b-05bd-400c-9eab-f5af2e827b73" xsi:nil="true"/>
-    <months xmlns="921a143b-05bd-400c-9eab-f5af2e827b73">NA</months>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245A2814-FEC3-4A50-84E5-3315C1BE1A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC59809-4A3E-4561-B333-E4217FABB892}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="921a143b-05bd-400c-9eab-f5af2e827b73"/>
-    <ds:schemaRef ds:uri="82d7a0e6-50aa-4cdc-b5cc-cb9041e495b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D56CE6C-619A-41F0-899F-103823242E30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="921a143b-05bd-400c-9eab-f5af2e827b73"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/spreadsheets/IPU.xlsx
+++ b/spreadsheets/IPU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://plantronics-my.sharepoint.com/personal/landon_brown_poly_com/Documents/Desktop/IPUs/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{DD25038B-4C97-4B5C-98E3-067EB3FCA4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA6AB870-AD75-4366-9377-AEABABC3AF21}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{DD25038B-4C97-4B5C-98E3-067EB3FCA4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{524E9896-0229-4DFD-97A8-C4C15B1DF63C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C38B610A-5224-49A7-99E6-4D31E486AFC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C38B610A-5224-49A7-99E6-4D31E486AFC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Clariti 2.0" sheetId="1" r:id="rId1"/>
@@ -1457,8 +1457,8 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -1737,7 +1737,6 @@
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="24"/>
-      <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -2408,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415BADD1-1E53-481E-AD09-E640F13A9C7B}">
   <dimension ref="C2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2489,15 +2488,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006234A633F2607B4AB2F0DD47C854A1A6" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b7f44df6be39d6dfec52f4eeba7d842">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="921a143b-05bd-400c-9eab-f5af2e827b73" xmlns:ns3="82d7a0e6-50aa-4cdc-b5cc-cb9041e495b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0e2639ea1f75547cde33c72b8f66fac" ns2:_="" ns3:_="">
     <xsd:import namespace="921a143b-05bd-400c-9eab-f5af2e827b73"/>
@@ -2730,6 +2720,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2740,14 +2739,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245A2814-FEC3-4A50-84E5-3315C1BE1A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC59809-4A3E-4561-B333-E4217FABB892}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2766,6 +2757,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{245A2814-FEC3-4A50-84E5-3315C1BE1A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D56CE6C-619A-41F0-899F-103823242E30}">
   <ds:schemaRefs>
